--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7478980228264</v>
+        <v>14.768619</v>
       </c>
       <c r="H2">
-        <v>14.7478980228264</v>
+        <v>44.305857</v>
       </c>
       <c r="I2">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J2">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>1556.149700737101</v>
+        <v>1661.667418845648</v>
       </c>
       <c r="R2">
-        <v>1556.149700737101</v>
+        <v>14955.00676961083</v>
       </c>
       <c r="S2">
-        <v>0.3062898035793082</v>
+        <v>0.3189067308207842</v>
       </c>
       <c r="T2">
-        <v>0.3062898035793082</v>
+        <v>0.3189067308207842</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7478980228264</v>
+        <v>14.768619</v>
       </c>
       <c r="H3">
-        <v>14.7478980228264</v>
+        <v>44.305857</v>
       </c>
       <c r="I3">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J3">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>1565.865372380452</v>
+        <v>1570.117842542454</v>
       </c>
       <c r="R3">
-        <v>1565.865372380452</v>
+        <v>14131.06058288209</v>
       </c>
       <c r="S3">
-        <v>0.3082020946383713</v>
+        <v>0.3013365625935214</v>
       </c>
       <c r="T3">
-        <v>0.3082020946383713</v>
+        <v>0.3013365625935214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7478980228264</v>
+        <v>14.768619</v>
       </c>
       <c r="H4">
-        <v>14.7478980228264</v>
+        <v>44.305857</v>
       </c>
       <c r="I4">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J4">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>1826.740090979534</v>
+        <v>1841.523550097318</v>
       </c>
       <c r="R4">
-        <v>1826.740090979534</v>
+        <v>16573.71195087586</v>
       </c>
       <c r="S4">
-        <v>0.3595488682043543</v>
+        <v>0.3534246675541106</v>
       </c>
       <c r="T4">
-        <v>0.3595488682043543</v>
+        <v>0.3534246675541107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.393047337191939</v>
+        <v>0.399405</v>
       </c>
       <c r="H5">
-        <v>0.393047337191939</v>
+        <v>1.198215</v>
       </c>
       <c r="I5">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="J5">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>41.47306247982387</v>
+        <v>44.93841133176</v>
       </c>
       <c r="R5">
-        <v>41.47306247982387</v>
+        <v>404.44570198584</v>
       </c>
       <c r="S5">
-        <v>0.00816295254547857</v>
+        <v>0.008624566916072199</v>
       </c>
       <c r="T5">
-        <v>0.00816295254547857</v>
+        <v>0.008624566916072199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.393047337191939</v>
+        <v>0.399405</v>
       </c>
       <c r="H6">
-        <v>0.393047337191939</v>
+        <v>1.198215</v>
       </c>
       <c r="I6">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="J6">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>41.73199557405466</v>
+        <v>42.46252929273</v>
       </c>
       <c r="R6">
-        <v>41.73199557405466</v>
+        <v>382.16276363457</v>
       </c>
       <c r="S6">
-        <v>0.008213917158031311</v>
+        <v>0.008149396350644931</v>
       </c>
       <c r="T6">
-        <v>0.008213917158031311</v>
+        <v>0.008149396350644933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.393047337191939</v>
+        <v>0.399405</v>
       </c>
       <c r="H7">
-        <v>0.393047337191939</v>
+        <v>1.198215</v>
       </c>
       <c r="I7">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="J7">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>48.68458728084317</v>
+        <v>49.80247059841</v>
       </c>
       <c r="R7">
-        <v>48.68458728084317</v>
+        <v>448.2222353856901</v>
       </c>
       <c r="S7">
-        <v>0.009582363874456278</v>
+        <v>0.009558075764866678</v>
       </c>
       <c r="T7">
-        <v>0.009582363874456278</v>
+        <v>0.00955807576486668</v>
       </c>
     </row>
   </sheetData>
